--- a/LOGS/0228f4df-0447-454a-8a5e-f1c7cffc11a5/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/0228f4df-0447-454a-8a5e-f1c7cffc11a5/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -765,6 +765,9 @@
       <c r="D2">
         <v>2021</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -774,6 +777,9 @@
         <v>33141783</v>
       </c>
       <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
         <v>2020</v>
       </c>
     </row>
@@ -814,6 +820,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3">
@@ -821,6 +830,9 @@
       </c>
       <c r="D3" t="s">
         <v>28</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -830,12 +842,18 @@
       <c r="D4">
         <v>2020</v>
       </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5">
         <v>20511</v>
       </c>
       <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
         <v>2020</v>
       </c>
     </row>
@@ -879,6 +897,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -888,6 +909,9 @@
         <v>27490442</v>
       </c>
       <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
         <v>2020</v>
       </c>
     </row>
@@ -1031,6 +1055,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -1042,6 +1069,9 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -1053,6 +1083,9 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -1064,6 +1097,9 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -1075,6 +1111,9 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7">
@@ -1083,6 +1122,9 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -1094,6 +1136,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -1105,6 +1150,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -1116,6 +1164,9 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -1127,6 +1178,9 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -1138,6 +1192,9 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
+      <c r="E12">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13">
@@ -1145,6 +1202,9 @@
       </c>
       <c r="D13" t="s">
         <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1190,6 +1250,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -1204,6 +1267,9 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -1218,6 +1284,9 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -1232,6 +1301,9 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -1246,6 +1318,9 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -1260,6 +1335,9 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -1274,6 +1352,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -1287,6 +1368,9 @@
       </c>
       <c r="D9" t="s">
         <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1335,6 +1419,9 @@
       <c r="E2" t="s">
         <v>82</v>
       </c>
+      <c r="F2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1349,6 +1436,9 @@
       <c r="E3" t="s">
         <v>82</v>
       </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1366,6 +1456,9 @@
       <c r="E4" t="s">
         <v>82</v>
       </c>
+      <c r="F4">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1383,6 +1476,9 @@
       <c r="E5" t="s">
         <v>82</v>
       </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1400,6 +1496,9 @@
       <c r="E6" t="s">
         <v>82</v>
       </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -1417,6 +1516,9 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1434,6 +1536,9 @@
       <c r="E8" t="s">
         <v>82</v>
       </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1451,6 +1556,9 @@
       <c r="E9" t="s">
         <v>82</v>
       </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -1468,6 +1576,9 @@
       <c r="E10" t="s">
         <v>82</v>
       </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -1482,6 +1593,9 @@
       <c r="E11" t="s">
         <v>82</v>
       </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -1496,6 +1610,9 @@
       <c r="E12" t="s">
         <v>82</v>
       </c>
+      <c r="F12">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -1513,6 +1630,9 @@
       <c r="E13" t="s">
         <v>82</v>
       </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -1530,6 +1650,9 @@
       <c r="E14" t="s">
         <v>82</v>
       </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -1547,6 +1670,9 @@
       <c r="E15" t="s">
         <v>82</v>
       </c>
+      <c r="F15">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -1564,8 +1690,11 @@
       <c r="E16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1581,8 +1710,11 @@
       <c r="E17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1598,8 +1730,11 @@
       <c r="E18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1615,8 +1750,11 @@
       <c r="E19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1629,8 +1767,11 @@
       <c r="E20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1643,8 +1784,11 @@
       <c r="E21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1660,8 +1804,11 @@
       <c r="E22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1677,8 +1824,11 @@
       <c r="E23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1694,8 +1844,11 @@
       <c r="E24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1711,8 +1864,11 @@
       <c r="E25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1728,8 +1884,11 @@
       <c r="E26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1745,8 +1904,11 @@
       <c r="E27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -1762,8 +1924,11 @@
       <c r="E28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1776,8 +1941,11 @@
       <c r="E29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -1790,8 +1958,11 @@
       <c r="E30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1807,8 +1978,11 @@
       <c r="E31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1824,8 +1998,11 @@
       <c r="E32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1841,8 +2018,11 @@
       <c r="E33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1858,8 +2038,11 @@
       <c r="E34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1875,8 +2058,11 @@
       <c r="E35" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1892,8 +2078,11 @@
       <c r="E36" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1908,6 +2097,9 @@
       </c>
       <c r="E37" t="s">
         <v>83</v>
+      </c>
+      <c r="F37">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -2728,6 +2920,9 @@
       <c r="D2">
         <v>2021</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2742,6 +2937,9 @@
       <c r="D3">
         <v>2021</v>
       </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -2756,6 +2954,9 @@
       <c r="D4">
         <v>2021</v>
       </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -2770,6 +2971,9 @@
       <c r="D5">
         <v>2021</v>
       </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -2784,6 +2988,9 @@
       <c r="D6">
         <v>2021</v>
       </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -2798,6 +3005,9 @@
       <c r="D7">
         <v>2021</v>
       </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -2812,6 +3022,9 @@
       <c r="D8">
         <v>2021</v>
       </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -2826,6 +3039,9 @@
       <c r="D9">
         <v>2021</v>
       </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -2840,6 +3056,9 @@
       <c r="D10">
         <v>2020</v>
       </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -2854,6 +3073,9 @@
       <c r="D11">
         <v>2020</v>
       </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -2868,6 +3090,9 @@
       <c r="D12">
         <v>2020</v>
       </c>
+      <c r="E12">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -2882,6 +3107,9 @@
       <c r="D13">
         <v>2020</v>
       </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -2896,6 +3124,9 @@
       <c r="D14">
         <v>2020</v>
       </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -2910,6 +3141,9 @@
       <c r="D15">
         <v>2020</v>
       </c>
+      <c r="E15">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -2924,8 +3158,11 @@
       <c r="D16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2936,6 +3173,9 @@
         <v>144455407</v>
       </c>
       <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
         <v>2020</v>
       </c>
     </row>
@@ -2983,7 +3223,7 @@
         <v>2021</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3000,7 +3240,7 @@
         <v>2021</v>
       </c>
       <c r="E3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3017,7 +3257,7 @@
         <v>2021</v>
       </c>
       <c r="E4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3034,7 +3274,7 @@
         <v>2021</v>
       </c>
       <c r="E5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3048,7 +3288,7 @@
         <v>2021</v>
       </c>
       <c r="E6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3173,6 +3413,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3184,6 +3427,9 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -3195,6 +3441,9 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -3206,6 +3455,9 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -3217,6 +3469,9 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -3228,6 +3483,9 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -3239,6 +3497,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -3250,6 +3511,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -3261,6 +3525,9 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -3271,6 +3538,9 @@
       </c>
       <c r="D11" t="s">
         <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -6218,6 +6488,9 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6229,6 +6502,9 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4">
@@ -6236,6 +6512,9 @@
       </c>
       <c r="D4" t="s">
         <v>28</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6245,6 +6524,9 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6">
@@ -6253,6 +6535,9 @@
       <c r="D6">
         <v>2020</v>
       </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -6264,6 +6549,9 @@
       <c r="D7">
         <v>2020</v>
       </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8">
@@ -6272,12 +6560,18 @@
       <c r="D8">
         <v>2020</v>
       </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9">
         <v>39221937</v>
       </c>
       <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
         <v>2020</v>
       </c>
     </row>
